--- a/Feb'2021/09.02.2021/Bank Statement.xlsx
+++ b/Feb'2021/09.02.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7935" tabRatio="742" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -2315,6 +2315,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="19" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2370,18 +2397,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2485,21 +2500,6 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2905,67 +2905,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="26.25">
-      <c r="A1" s="237" t="s">
+      <c r="A1" s="246" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="237"/>
-      <c r="C1" s="237"/>
-      <c r="D1" s="237"/>
-      <c r="E1" s="237"/>
-      <c r="F1" s="237"/>
-      <c r="G1" s="237"/>
-      <c r="H1" s="237"/>
-      <c r="I1" s="237"/>
-      <c r="J1" s="237"/>
-      <c r="K1" s="237"/>
-      <c r="L1" s="237"/>
-      <c r="M1" s="237"/>
-      <c r="N1" s="237"/>
-      <c r="O1" s="237"/>
-      <c r="P1" s="237"/>
-      <c r="Q1" s="237"/>
+      <c r="B1" s="246"/>
+      <c r="C1" s="246"/>
+      <c r="D1" s="246"/>
+      <c r="E1" s="246"/>
+      <c r="F1" s="246"/>
+      <c r="G1" s="246"/>
+      <c r="H1" s="246"/>
+      <c r="I1" s="246"/>
+      <c r="J1" s="246"/>
+      <c r="K1" s="246"/>
+      <c r="L1" s="246"/>
+      <c r="M1" s="246"/>
+      <c r="N1" s="246"/>
+      <c r="O1" s="246"/>
+      <c r="P1" s="246"/>
+      <c r="Q1" s="246"/>
     </row>
     <row r="2" spans="1:24" ht="18">
-      <c r="A2" s="238" t="s">
+      <c r="A2" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="238"/>
-      <c r="C2" s="238"/>
-      <c r="D2" s="238"/>
-      <c r="E2" s="238"/>
-      <c r="F2" s="238"/>
-      <c r="G2" s="238"/>
-      <c r="H2" s="238"/>
-      <c r="I2" s="238"/>
-      <c r="J2" s="238"/>
-      <c r="K2" s="238"/>
-      <c r="L2" s="238"/>
-      <c r="M2" s="238"/>
-      <c r="N2" s="238"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
+      <c r="B2" s="247"/>
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="247"/>
+      <c r="K2" s="247"/>
+      <c r="L2" s="247"/>
+      <c r="M2" s="247"/>
+      <c r="N2" s="247"/>
+      <c r="O2" s="247"/>
+      <c r="P2" s="247"/>
+      <c r="Q2" s="247"/>
     </row>
     <row r="3" spans="1:24" s="97" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="245" t="s">
+      <c r="A3" s="254" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="246"/>
-      <c r="C3" s="246"/>
-      <c r="D3" s="246"/>
-      <c r="E3" s="246"/>
-      <c r="F3" s="246"/>
-      <c r="G3" s="246"/>
-      <c r="H3" s="246"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
-      <c r="P3" s="246"/>
-      <c r="Q3" s="247"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="256"/>
       <c r="S3" s="98"/>
       <c r="T3" s="99"/>
       <c r="U3" s="99"/>
@@ -2974,52 +2974,52 @@
       <c r="X3" s="100"/>
     </row>
     <row r="4" spans="1:24" s="100" customFormat="1">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="248" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="241" t="s">
+      <c r="B4" s="250" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="241" t="s">
+      <c r="C4" s="250" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="235" t="s">
+      <c r="D4" s="244" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="235" t="s">
+      <c r="E4" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="235" t="s">
+      <c r="F4" s="244" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="235" t="s">
+      <c r="G4" s="244" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="235" t="s">
+      <c r="H4" s="244" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="235" t="s">
+      <c r="I4" s="244" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="235" t="s">
+      <c r="J4" s="244" t="s">
         <v>30</v>
       </c>
-      <c r="K4" s="248" t="s">
+      <c r="K4" s="257" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="250" t="s">
+      <c r="L4" s="259" t="s">
         <v>143</v>
       </c>
-      <c r="M4" s="252" t="s">
+      <c r="M4" s="261" t="s">
         <v>32</v>
       </c>
-      <c r="N4" s="254" t="s">
+      <c r="N4" s="240" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="256" t="s">
+      <c r="O4" s="242" t="s">
         <v>33</v>
       </c>
-      <c r="P4" s="243" t="s">
+      <c r="P4" s="252" t="s">
         <v>34</v>
       </c>
       <c r="Q4" s="205" t="s">
@@ -3032,22 +3032,22 @@
       <c r="W4" s="99"/>
     </row>
     <row r="5" spans="1:24" s="100" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="240"/>
-      <c r="B5" s="242"/>
-      <c r="C5" s="242"/>
-      <c r="D5" s="236"/>
-      <c r="E5" s="236"/>
-      <c r="F5" s="236"/>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="236"/>
-      <c r="J5" s="236"/>
-      <c r="K5" s="249"/>
-      <c r="L5" s="251"/>
-      <c r="M5" s="253"/>
-      <c r="N5" s="255"/>
-      <c r="O5" s="257"/>
-      <c r="P5" s="244"/>
+      <c r="A5" s="249"/>
+      <c r="B5" s="251"/>
+      <c r="C5" s="251"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
+      <c r="F5" s="245"/>
+      <c r="G5" s="245"/>
+      <c r="H5" s="245"/>
+      <c r="I5" s="245"/>
+      <c r="J5" s="245"/>
+      <c r="K5" s="258"/>
+      <c r="L5" s="260"/>
+      <c r="M5" s="262"/>
+      <c r="N5" s="241"/>
+      <c r="O5" s="243"/>
+      <c r="P5" s="253"/>
       <c r="Q5" s="206" t="s">
         <v>36</v>
       </c>
@@ -5901,12 +5901,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A4:A5"/>
@@ -5920,6 +5914,12 @@
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -5946,12 +5946,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="26.25">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="263" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="260"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="265"/>
       <c r="F1" s="9"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8"/>
@@ -5966,12 +5966,12 @@
       <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="18">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="266" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="261"/>
-      <c r="C2" s="261"/>
-      <c r="D2" s="261"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
       <c r="F2" s="9"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -6128,10 +6128,10 @@
       <c r="A8" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B8" s="292">
+      <c r="B8" s="235">
         <v>210000</v>
       </c>
-      <c r="C8" s="296">
+      <c r="C8" s="239">
         <v>500000</v>
       </c>
       <c r="D8" s="46">
@@ -6158,7 +6158,7 @@
       <c r="A9" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="B9" s="292">
+      <c r="B9" s="235">
         <v>175000</v>
       </c>
       <c r="C9" s="231">
@@ -6216,10 +6216,10 @@
       <c r="A11" s="45" t="s">
         <v>162</v>
       </c>
-      <c r="B11" s="293">
+      <c r="B11" s="236">
         <v>463000</v>
       </c>
-      <c r="C11" s="295">
+      <c r="C11" s="238">
         <v>500000</v>
       </c>
       <c r="D11" s="46">
@@ -6246,10 +6246,10 @@
       <c r="A12" s="50" t="s">
         <v>164</v>
       </c>
-      <c r="B12" s="293">
+      <c r="B12" s="236">
         <v>275000</v>
       </c>
-      <c r="C12" s="296">
+      <c r="C12" s="239">
         <v>200000</v>
       </c>
       <c r="D12" s="46">
@@ -6276,7 +6276,7 @@
       <c r="A13" s="50" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="294">
+      <c r="B13" s="237">
         <v>208000</v>
       </c>
       <c r="C13" s="230">
@@ -7904,8 +7904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7916,28 +7916,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="262" t="s">
+      <c r="A1" s="267" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
+      <c r="B1" s="267"/>
+      <c r="C1" s="267"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="262"/>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
+      <c r="A2" s="267"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="263" t="s">
+      <c r="A3" s="268" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="263"/>
-      <c r="C3" s="263"/>
+      <c r="B3" s="268"/>
+      <c r="C3" s="268"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="264"/>
-      <c r="B4" s="264"/>
-      <c r="C4" s="264"/>
+      <c r="A4" s="269"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="135" t="s">
@@ -8222,25 +8222,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="26.25" customHeight="1">
-      <c r="A1" s="268" t="s">
+      <c r="A1" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="269"/>
-      <c r="D1" s="269"/>
-      <c r="E1" s="270"/>
+      <c r="B1" s="274"/>
+      <c r="C1" s="274"/>
+      <c r="D1" s="274"/>
+      <c r="E1" s="275"/>
       <c r="G1" s="22"/>
       <c r="H1" s="137"/>
       <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:12" ht="21.75">
-      <c r="A2" s="271" t="s">
+      <c r="A2" s="276" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="272"/>
-      <c r="C2" s="272"/>
-      <c r="D2" s="272"/>
-      <c r="E2" s="273"/>
+      <c r="B2" s="277"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="278"/>
     </row>
     <row r="3" spans="1:12" ht="23.25" hidden="1" customHeight="1" thickBot="1">
       <c r="A3" s="34" t="s">
@@ -8265,11 +8265,11 @@
       <c r="D4" s="19"/>
       <c r="E4" s="83"/>
       <c r="F4" s="29"/>
-      <c r="J4" s="274" t="s">
+      <c r="J4" s="279" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="275"/>
-      <c r="L4" s="276"/>
+      <c r="K4" s="280"/>
+      <c r="L4" s="281"/>
     </row>
     <row r="5" spans="1:12" ht="22.5">
       <c r="A5" s="84" t="s">
@@ -8544,11 +8544,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="23.25" hidden="1" customHeight="1" thickBot="1">
-      <c r="A17" s="265"/>
-      <c r="B17" s="266"/>
-      <c r="C17" s="266"/>
-      <c r="D17" s="266"/>
-      <c r="E17" s="267"/>
+      <c r="A17" s="270"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="272"/>
       <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:9">
@@ -8687,108 +8687,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
+      <c r="A2" s="285"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="285"/>
+      <c r="K2" s="285"/>
+      <c r="L2" s="285"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
     </row>
     <row r="3" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="286" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="286"/>
+      <c r="J3" s="286"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
     </row>
     <row r="4" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="287" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="287"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="287"/>
+      <c r="G4" s="287"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="287"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="287"/>
+      <c r="N4" s="287"/>
+      <c r="O4" s="287"/>
+      <c r="P4" s="287"/>
+      <c r="Q4" s="287"/>
     </row>
     <row r="5" spans="1:20" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="283" t="s">
+      <c r="A5" s="288" t="s">
         <v>165</v>
       </c>
-      <c r="B5" s="284"/>
-      <c r="C5" s="283" t="s">
+      <c r="B5" s="289"/>
+      <c r="C5" s="288" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="284"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="290"/>
+      <c r="K5" s="290"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="290"/>
+      <c r="P5" s="289"/>
       <c r="Q5" s="140"/>
     </row>
     <row r="6" spans="1:20" s="120" customFormat="1" ht="18" customHeight="1">
@@ -9371,11 +9371,11 @@
       <c r="Q27" s="183"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
+      <c r="B28" s="283"/>
+      <c r="C28" s="284"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -10108,12 +10108,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15" customHeight="1">
-      <c r="B1" s="286" t="s">
+      <c r="B1" s="291" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="288"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="293"/>
     </row>
     <row r="2" spans="2:8" ht="15" customHeight="1">
       <c r="B2" s="150" t="s">
@@ -10482,7 +10482,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="T14" sqref="T14"/>
     </sheetView>
@@ -10508,111 +10508,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18" customHeight="1">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="285" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="280"/>
-      <c r="K1" s="280"/>
-      <c r="L1" s="280"/>
-      <c r="M1" s="280"/>
-      <c r="N1" s="280"/>
-      <c r="O1" s="280"/>
-      <c r="P1" s="280"/>
-      <c r="Q1" s="280"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
+      <c r="P1" s="285"/>
+      <c r="Q1" s="285"/>
     </row>
     <row r="2" spans="1:19" ht="15" customHeight="1">
-      <c r="A2" s="280"/>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="280"/>
-      <c r="K2" s="280"/>
-      <c r="L2" s="280"/>
-      <c r="M2" s="280"/>
-      <c r="N2" s="280"/>
-      <c r="O2" s="280"/>
-      <c r="P2" s="280"/>
-      <c r="Q2" s="280"/>
+      <c r="A2" s="285"/>
+      <c r="B2" s="285"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="285"/>
+      <c r="K2" s="285"/>
+      <c r="L2" s="285"/>
+      <c r="M2" s="285"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
     </row>
     <row r="3" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A3" s="281" t="s">
+      <c r="A3" s="286" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="281"/>
-      <c r="C3" s="281"/>
-      <c r="D3" s="281"/>
-      <c r="E3" s="281"/>
-      <c r="F3" s="281"/>
-      <c r="G3" s="281"/>
-      <c r="H3" s="281"/>
-      <c r="I3" s="281"/>
-      <c r="J3" s="281"/>
-      <c r="K3" s="281"/>
-      <c r="L3" s="281"/>
-      <c r="M3" s="281"/>
-      <c r="N3" s="281"/>
-      <c r="O3" s="281"/>
-      <c r="P3" s="281"/>
-      <c r="Q3" s="281"/>
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="286"/>
+      <c r="H3" s="286"/>
+      <c r="I3" s="286"/>
+      <c r="J3" s="286"/>
+      <c r="K3" s="286"/>
+      <c r="L3" s="286"/>
+      <c r="M3" s="286"/>
+      <c r="N3" s="286"/>
+      <c r="O3" s="286"/>
+      <c r="P3" s="286"/>
+      <c r="Q3" s="286"/>
     </row>
     <row r="4" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A4" s="282" t="s">
+      <c r="A4" s="287" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="282"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
-      <c r="J4" s="282"/>
-      <c r="K4" s="282"/>
-      <c r="L4" s="282"/>
-      <c r="M4" s="282"/>
-      <c r="N4" s="282"/>
-      <c r="O4" s="282"/>
-      <c r="P4" s="282"/>
-      <c r="Q4" s="282"/>
+      <c r="B4" s="287"/>
+      <c r="C4" s="287"/>
+      <c r="D4" s="287"/>
+      <c r="E4" s="287"/>
+      <c r="F4" s="287"/>
+      <c r="G4" s="287"/>
+      <c r="H4" s="287"/>
+      <c r="I4" s="287"/>
+      <c r="J4" s="287"/>
+      <c r="K4" s="287"/>
+      <c r="L4" s="287"/>
+      <c r="M4" s="287"/>
+      <c r="N4" s="287"/>
+      <c r="O4" s="287"/>
+      <c r="P4" s="287"/>
+      <c r="Q4" s="287"/>
     </row>
     <row r="5" spans="1:19" s="130" customFormat="1" ht="18" customHeight="1">
-      <c r="A5" s="289" t="s">
+      <c r="A5" s="294" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="290"/>
+      <c r="B5" s="295"/>
       <c r="C5" s="184"/>
       <c r="D5" s="185" t="s">
         <v>79</v>
       </c>
       <c r="E5" s="185"/>
-      <c r="F5" s="285" t="s">
+      <c r="F5" s="290" t="s">
         <v>123</v>
       </c>
-      <c r="G5" s="285"/>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285"/>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
-      <c r="M5" s="285"/>
-      <c r="N5" s="285"/>
-      <c r="O5" s="285"/>
-      <c r="P5" s="285"/>
-      <c r="Q5" s="284"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="290"/>
+      <c r="K5" s="290"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="290"/>
+      <c r="P5" s="290"/>
+      <c r="Q5" s="289"/>
     </row>
     <row r="6" spans="1:19" s="120" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="141" t="s">
@@ -11224,11 +11224,11 @@
       <c r="Q27" s="193"/>
     </row>
     <row r="28" spans="1:17" s="129" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="282" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="278"/>
-      <c r="C28" s="279"/>
+      <c r="B28" s="283"/>
+      <c r="C28" s="284"/>
       <c r="D28" s="148">
         <f t="shared" ref="D28:P28" si="0">SUM(D7:D27)</f>
         <v>0</v>
@@ -11962,10 +11962,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="291" t="s">
+      <c r="B1" s="296" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="291"/>
+      <c r="C1" s="296"/>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="233" t="s">
